--- a/test_scripts/chrome/QS006_demoqa_testscript.xlsx
+++ b/test_scripts/chrome/QS006_demoqa_testscript.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\java-projects\webautomationframework_java\test_scripts\chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2510B-62D5-4704-8D9C-E9AD64B21F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517B8EBB-6A23-4CDC-BC07-418644A1EE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>open_browser</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>demoqa_home_form_sub_close_css</t>
-  </si>
-  <si>
-    <t>chromedgerunonlinux.txt</t>
   </si>
 </sst>
 </file>
@@ -657,7 +654,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,9 +1003,6 @@
       <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">

--- a/test_scripts/chrome/QS006_demoqa_testscript.xlsx
+++ b/test_scripts/chrome/QS006_demoqa_testscript.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\java-projects\webautomationframework_java\test_scripts\chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517B8EBB-6A23-4CDC-BC07-418644A1EE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9CC14-1217-4EF5-9DF6-D6D9EC4B26A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>open_browser</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>demoqa_home_form_sub_close_css</t>
+  </si>
+  <si>
+    <t>chromedgerunonlinux.txt</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3916CC0C-2E25-4DCF-A97F-45AF0FE46343}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,16 +807,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,60 +821,63 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>1111221122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -882,46 +885,43 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>1111221122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -929,35 +929,32 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -965,21 +962,24 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,35 +987,35 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,34 +1023,32 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,66 +1056,151 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="5"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="5"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="4"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="4"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D56" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
